--- a/Excel-XLSX/UN-BER.xlsx
+++ b/Excel-XLSX/UN-BER.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>gRoI12</t>
+    <t>qyB9AX</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-BER.xlsx
+++ b/Excel-XLSX/UN-BER.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>qyB9AX</t>
+    <t>CL7Lvn</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-BER.xlsx
+++ b/Excel-XLSX/UN-BER.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>CL7Lvn</t>
+    <t>LUMfg8</t>
   </si>
   <si>
     <t>0</t>
